--- a/BalanceSheet/AXP_bal.xlsx
+++ b/BalanceSheet/AXP_bal.xlsx
@@ -3614,7 +3614,7 @@
         <v>19990000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>40345000000.0</v>
+        <v>55446000000.0</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>34208000000.0</v>
@@ -3741,7 +3741,7 @@
         <v>56085000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>64277000000.0</v>
+        <v>79892000000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>58474000000.0</v>
